--- a/進捗ファイル/マテリアルデザイン.xlsx
+++ b/進捗ファイル/マテリアルデザイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocs_2018021\Desktop\卒業研究\マテリアルデザイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0E765-4862-4189-A024-4DCEDB2C030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD813D7-0682-44BE-BBC3-96DE201740E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{15DEF2D0-EB09-41A5-8CDC-C02D9A0F9831}"/>
   </bookViews>
@@ -581,6 +581,156 @@
         <a:xfrm>
           <a:off x="485775" y="9848850"/>
           <a:ext cx="895475" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E520D7-C6D2-4262-A105-28AF8ED80DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990724" y="1123950"/>
+          <a:ext cx="1133475" cy="1360170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>183939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396BD60C-597A-4934-8F5A-60AD37B3BBEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="342900"/>
+          <a:ext cx="1219200" cy="555414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>677635</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE3BC51-D9DB-43D1-B8AE-697AC1291B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="1095374"/>
+          <a:ext cx="1449160" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1D7A0-25AE-46A8-8A36-1667CE5C27E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1213,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1EFEB8-0732-4914-BD69-ECB3D082D477}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
